--- a/tests/testthat/_snaps/xlsx_export/Table_6.xlsx
+++ b/tests/testthat/_snaps/xlsx_export/Table_6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">A highlighted cell</t>
   </si>
@@ -44,18 +44,21 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
+    <t xml:space="preserve">female (a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Droid</t>
+  </si>
+  <si>
     <t xml:space="preserve">female</t>
   </si>
   <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Droid</t>
-  </si>
-  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) Some comment.</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1">
+    <row r="1" ht="39.2" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>8</v>
@@ -731,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>9</v>
@@ -739,7 +745,7 @@
     </row>
     <row r="11" ht="27" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -759,10 +765,10 @@
     </row>
     <row r="12" ht="27" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>8</v>
@@ -779,7 +785,7 @@
     </row>
     <row r="13" ht="27" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
@@ -791,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>8</v>
@@ -799,7 +805,7 @@
     </row>
     <row r="14" ht="27" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
@@ -819,7 +825,7 @@
     </row>
     <row r="15" ht="27" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -839,13 +845,13 @@
     </row>
     <row r="16" ht="27" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>8</v>
@@ -859,27 +865,27 @@
     </row>
     <row r="17" ht="27" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
@@ -899,7 +905,7 @@
     </row>
     <row r="19" ht="27" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
@@ -919,16 +925,16 @@
     </row>
     <row r="20" ht="27" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>8</v>
@@ -939,7 +945,7 @@
     </row>
     <row r="21" ht="27" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>11</v>
@@ -948,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>8</v>
@@ -959,7 +965,7 @@
     </row>
     <row r="22" ht="27" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>12</v>
@@ -979,7 +985,7 @@
     </row>
     <row r="23" ht="27" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
@@ -999,13 +1005,13 @@
     </row>
     <row r="24" ht="27" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>8</v>
@@ -1019,7 +1025,7 @@
     </row>
     <row r="25" ht="27" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>11</v>
@@ -1039,7 +1045,7 @@
     </row>
     <row r="26" ht="27" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>12</v>
@@ -1057,23 +1063,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="27" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
